--- a/form-files/tables/Ethiopia_members/forms/Ethiopia_Section2_names/Ethiopia_Section2_names.xlsx
+++ b/form-files/tables/Ethiopia_members/forms/Ethiopia_Section2_names/Ethiopia_Section2_names.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23515"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="23160" yWindow="-25720" windowWidth="22920" windowHeight="13420" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="5" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="108">
   <si>
     <t>setting_name</t>
   </si>
@@ -87,9 +87,6 @@
     <t>religion</t>
   </si>
   <si>
-    <t>Names</t>
-  </si>
-  <si>
     <t>household_id</t>
   </si>
   <si>
@@ -163,13 +160,199 @@
   </si>
   <si>
     <t>goto _finalize</t>
+  </si>
+  <si>
+    <t>primary_occupation</t>
+  </si>
+  <si>
+    <t>is_smoker</t>
+  </si>
+  <si>
+    <t>smoked_years_ago</t>
+  </si>
+  <si>
+    <t>began_smoke_age</t>
+  </si>
+  <si>
+    <t>number_cigarettes</t>
+  </si>
+  <si>
+    <t>smokes_in_house</t>
+  </si>
+  <si>
+    <t>hours_collecting</t>
+  </si>
+  <si>
+    <t>hours_fuel_materials</t>
+  </si>
+  <si>
+    <t>hours_fuel_sale</t>
+  </si>
+  <si>
+    <t>hours_fuel_purchase</t>
+  </si>
+  <si>
+    <t>hours_spent_wood</t>
+  </si>
+  <si>
+    <t>hours_spent_cooking</t>
+  </si>
+  <si>
+    <t>hours_spent_collecting_water</t>
+  </si>
+  <si>
+    <t>answering_for_self</t>
+  </si>
+  <si>
+    <t>shortness_of_breath</t>
+  </si>
+  <si>
+    <t>days_short_of_breath</t>
+  </si>
+  <si>
+    <t>month_short_of_breath</t>
+  </si>
+  <si>
+    <t>cough</t>
+  </si>
+  <si>
+    <t>cough_frequency</t>
+  </si>
+  <si>
+    <t>dry_cough</t>
+  </si>
+  <si>
+    <t>productive_cough</t>
+  </si>
+  <si>
+    <t>sore_throat</t>
+  </si>
+  <si>
+    <t>days_sore_throat</t>
+  </si>
+  <si>
+    <t>month_sore_throat</t>
+  </si>
+  <si>
+    <t>answering_self_95</t>
+  </si>
+  <si>
+    <t>stuffy_nose</t>
+  </si>
+  <si>
+    <t>days_stuffy_nose</t>
+  </si>
+  <si>
+    <t>month_stuffy_nose</t>
+  </si>
+  <si>
+    <t>fever</t>
+  </si>
+  <si>
+    <t>days_fever</t>
+  </si>
+  <si>
+    <t>month_fever</t>
+  </si>
+  <si>
+    <t>eye_problem</t>
+  </si>
+  <si>
+    <t>days_eye_problem</t>
+  </si>
+  <si>
+    <t>month_eye_problem</t>
+  </si>
+  <si>
+    <t>where_medical_attention</t>
+  </si>
+  <si>
+    <t>injury_faced</t>
+  </si>
+  <si>
+    <t>days_absent</t>
+  </si>
+  <si>
+    <t>diagnosis</t>
+  </si>
+  <si>
+    <t>diagnosis_by_whom</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>auxillaryHash</t>
+  </si>
+  <si>
+    <t>Section2_names</t>
+  </si>
+  <si>
+    <t>Section2_other_info</t>
+  </si>
+  <si>
+    <t>Section3</t>
+  </si>
+  <si>
+    <t>Section4</t>
+  </si>
+  <si>
+    <t>Section5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     </t>
+  </si>
+  <si>
+    <t>Section82</t>
+  </si>
+  <si>
+    <t>Section82 p2</t>
+  </si>
+  <si>
+    <t>Section82 p3</t>
+  </si>
+  <si>
+    <t>Section82 p4</t>
+  </si>
+  <si>
+    <t>Section82 p5</t>
+  </si>
+  <si>
+    <t>Section91</t>
+  </si>
+  <si>
+    <t>Section91 p2</t>
+  </si>
+  <si>
+    <t>Section93</t>
+  </si>
+  <si>
+    <t>Section93 p2</t>
+  </si>
+  <si>
+    <t>Section94</t>
+  </si>
+  <si>
+    <t>Section95</t>
+  </si>
+  <si>
+    <t>comments</t>
+  </si>
+  <si>
+    <t>skips the finalize screen where the user chooses to save as incomplete or finalized and instead saves as finalized</t>
+  </si>
+  <si>
+    <t>Roster</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -193,16 +376,125 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -210,8 +502,17 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -223,24 +524,185 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="59">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -570,33 +1032,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="18.1640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="3" width="18.1640625" style="1"/>
+    <col min="4" max="4" width="41.33203125" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="18.1640625" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:4" s="41" customFormat="1">
+      <c r="A1" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="41" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>46</v>
+      <c r="D1" s="41" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="45">
+      <c r="A3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -615,7 +1088,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -626,18 +1099,18 @@
     <col min="4" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" s="41" customFormat="1">
+      <c r="A1" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>37</v>
+      <c r="D1" s="41" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="30">
@@ -669,8 +1142,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -678,14 +1151,14 @@
     <col min="1" max="1" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" s="42" customFormat="1">
+      <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="42" t="s">
         <v>2</v>
       </c>
     </row>
@@ -694,7 +1167,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -702,7 +1175,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -710,7 +1183,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -733,207 +1206,588 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:E64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" customWidth="1"/>
+    <col min="1" max="1" width="18.1640625" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" s="43" customFormat="1">
+      <c r="A1" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="44" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
+      <c r="D1" s="43" t="s">
+        <v>93</v>
+      </c>
+      <c r="E1" s="43" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="2" customFormat="1">
+      <c r="A2" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
+    </row>
+    <row r="3" spans="1:5" s="4" customFormat="1">
+      <c r="A3" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="6" customFormat="1">
+      <c r="A4" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
+      <c r="C4" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="6" customFormat="1">
+      <c r="B5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
+      <c r="C5" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="6" customFormat="1">
+      <c r="B6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
+      <c r="C6" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="6" customFormat="1">
+      <c r="B7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
+      <c r="C7" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="6" customFormat="1">
+      <c r="B8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="6" customFormat="1">
+      <c r="B9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="6" customFormat="1">
+      <c r="B10" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="10" customFormat="1">
+      <c r="A11" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B11" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="C11" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="10" customFormat="1">
+      <c r="B12" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="10" customFormat="1">
+      <c r="B13" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="10" customFormat="1">
+      <c r="B14" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="10" customFormat="1">
+      <c r="B15" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="10" customFormat="1">
+      <c r="B16" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" s="10" customFormat="1">
+      <c r="B17" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" s="12" customFormat="1">
+      <c r="A18" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" s="15" customFormat="1">
+      <c r="A19" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" s="15" customFormat="1">
+      <c r="B20" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" s="15" customFormat="1">
+      <c r="B21" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" s="15" customFormat="1">
+      <c r="B22" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" s="15" customFormat="1">
+      <c r="B23" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" s="18" customFormat="1">
+      <c r="A24" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" s="18" customFormat="1">
+      <c r="B25" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" s="18" customFormat="1">
+      <c r="B26" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" s="21" customFormat="1">
+      <c r="A27" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="B27" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" s="23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" s="24" customFormat="1">
+      <c r="A28" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="B28" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" s="26" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" s="8" customFormat="1">
+      <c r="A29" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" s="27" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" s="28" customFormat="1">
+      <c r="A30" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="B30" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="C30" s="30" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" s="31" customFormat="1" ht="30">
+      <c r="A31" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="B31" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="C31" s="32" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" s="33" customFormat="1" ht="30">
+      <c r="A32" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="B32" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="C32" s="34" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" t="s">
+    <row r="33" spans="1:3" s="33" customFormat="1">
+      <c r="B33" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="C33" s="34" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" s="33" customFormat="1">
+      <c r="B34" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="C34" s="34" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" s="33" customFormat="1" ht="30">
+      <c r="B35" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="C35" s="34" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
+    <row r="36" spans="1:3" s="35" customFormat="1">
+      <c r="A36" s="35" t="s">
+        <v>101</v>
+      </c>
+      <c r="B36" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" s="36" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" s="37" customFormat="1">
+      <c r="A37" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="B37" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="B17" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
+      <c r="C37" s="38" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" s="37" customFormat="1">
+      <c r="B38" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C38" s="38" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" s="37" customFormat="1">
+      <c r="B39" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="C39" s="38" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" s="37" customFormat="1">
+      <c r="B40" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="C40" s="38" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" s="37" customFormat="1">
+      <c r="B41" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="C41" s="38" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" s="37" customFormat="1">
+      <c r="B42" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="C42" s="38" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" s="37" customFormat="1">
+      <c r="B43" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="C43" s="38" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" s="15" customFormat="1" ht="30">
+      <c r="A44" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="B44" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C44" s="17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>40</v>
-      </c>
-      <c r="B19" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>41</v>
-      </c>
-      <c r="B20" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>42</v>
-      </c>
-      <c r="B21" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>43</v>
-      </c>
-      <c r="B22" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>44</v>
-      </c>
-      <c r="B23" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>45</v>
-      </c>
-      <c r="B24" t="s">
+    <row r="45" spans="1:3" s="15" customFormat="1" ht="30">
+      <c r="B45" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C45" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" s="15" customFormat="1" ht="30">
+      <c r="B46" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C46" s="17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" s="15" customFormat="1" ht="30">
+      <c r="B47" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C47" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" s="15" customFormat="1">
+      <c r="B48" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="C48" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" s="15" customFormat="1">
+      <c r="B49" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C49" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" s="15" customFormat="1">
+      <c r="B50" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C50" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" s="15" customFormat="1" ht="30">
+      <c r="B51" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C51" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" s="15" customFormat="1">
+      <c r="B52" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="C52" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" s="15" customFormat="1">
+      <c r="B53" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C53" s="17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" s="15" customFormat="1" ht="30">
+      <c r="B54" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="C54" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" s="39" customFormat="1" ht="30">
+      <c r="A55" s="39" t="s">
+        <v>104</v>
+      </c>
+      <c r="B55" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="C55" s="40" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" s="39" customFormat="1">
+      <c r="B56" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="C56" s="40" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" s="39" customFormat="1">
+      <c r="B57" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="C57" s="40" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" s="39" customFormat="1" ht="30">
+      <c r="B58" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="C58" s="40" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" s="39" customFormat="1">
+      <c r="B59" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="C59" s="40" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" s="39" customFormat="1">
+      <c r="B60" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="C60" s="40" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" s="39" customFormat="1">
+      <c r="B61" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="C61" s="40" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" s="39" customFormat="1">
+      <c r="B62" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="C62" s="40" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" s="39" customFormat="1" ht="30">
+      <c r="B63" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="C63" s="40" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" s="39" customFormat="1" ht="30">
+      <c r="B64" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="C64" s="40" t="s">
         <v>12</v>
       </c>
     </row>
